--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\profil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBB275-5B0F-4D80-8094-0F260B3A4B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D498835-C582-41E2-B056-7EC60E5694E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C8CB1A51-9A4E-4EA7-8D50-35A18B5D5832}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C8CB1A51-9A4E-4EA7-8D50-35A18B5D5832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>Nilai GAP (Selisih)</t>
   </si>
@@ -280,6 +281,51 @@
   </si>
   <si>
     <t>Tidak ada skill relevan</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>pengalaman</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Penjelasan Logis</t>
+  </si>
+  <si>
+    <t>Sempurna. Kompetensi kandidat persis seperti yang dibutuhkan oleh perusahaan. Ini adalah kondisi paling ideal.</t>
+  </si>
+  <si>
+    <t>Kelebihan 1 tingkat. Kandidat sedikit di atas standar. Ini sangat baik, tapi tidak sesempurna GAP 0.</t>
+  </si>
+  <si>
+    <t>Kekurangan 1 tingkat. Kandidat masih bisa diterima dan hanya butuh sedikit pelatihan. Nilainya sedikit lebih rendah daripada kelebihan 1 tingkat.</t>
+  </si>
+  <si>
+    <t>Kelebihan 2 tingkat. Kompetensi kandidat jauh di atas standar. Ini masih bagus.</t>
+  </si>
+  <si>
+    <t>Kekurangan 2 tingkat. Kandidat membutuhkan pelatihan yang cukup. Nilainya lebih rendah daripada kelebihan 2 tingkat.</t>
+  </si>
+  <si>
+    <t>Kelebihan 3 tingkat. Kandidat sangat overqualified.</t>
+  </si>
+  <si>
+    <t>Kekurangan 3 tingkat. Kandidat membutuhkan banyak pelatihan.</t>
+  </si>
+  <si>
+    <t>Kelebihan 4 tingkat. Kompetensi kandidat sangat jauh di atas standar.</t>
+  </si>
+  <si>
+    <t>Kekurangan 4 tingkat. Kompetensi kandidat sangat jauh di bawah standar.</t>
+  </si>
+  <si>
+    <t>Hasil Akhir</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -309,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +368,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -383,11 +441,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,39 +515,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB3E8A-F65B-42C2-8176-BBB3466304A6}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,11 +951,11 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -822,11 +964,11 @@
       <c r="B2" s="10">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -835,11 +977,11 @@
       <c r="B3" s="10">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -848,11 +990,11 @@
       <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="I4" t="s">
         <v>22</v>
       </c>
@@ -864,11 +1006,11 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -877,26 +1019,26 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19" t="s">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="19"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
@@ -909,17 +1051,17 @@
       <c r="J7" s="11">
         <v>5</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="28">
         <f>J7/B2</f>
         <v>1</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28">
         <f>1*B14</f>
         <v>0.3</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -945,17 +1087,17 @@
       <c r="J8" s="11">
         <v>2</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="28">
         <f>J8/B2</f>
         <v>0.4</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28">
         <f>K8*C14</f>
         <v>0.1</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -982,17 +1124,17 @@
       <c r="J9" s="11">
         <v>4</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="29">
         <f>J9/B2</f>
         <v>0.8</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <f>K9*D14</f>
         <v>0.12</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1020,17 +1162,17 @@
       <c r="J10" s="11">
         <v>4</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="29">
         <f>J10/B2</f>
         <v>0.8</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29">
         <f>K10*E14</f>
         <v>0.12</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1058,17 +1200,17 @@
       <c r="J11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="29">
         <f>J11/B2</f>
         <v>0.6</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29">
         <f>K11*F14</f>
         <v>0.09</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1076,11 +1218,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="N12" s="20">
+      <c r="N12" s="28">
         <f>SUM(N7:N11)</f>
         <v>0.73</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1146,11 +1288,11 @@
       <c r="F17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -1168,11 +1310,11 @@
       <c r="F18" s="13">
         <v>5</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -1190,11 +1332,11 @@
       <c r="F19" s="13">
         <v>4</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -1212,11 +1354,11 @@
       <c r="F20" s="13">
         <v>3</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -1234,11 +1376,11 @@
       <c r="F21" s="13">
         <v>2</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -1256,11 +1398,11 @@
       <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1280,9 +1422,9 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1296,9 +1438,9 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -1312,9 +1454,9 @@
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -1328,9 +1470,9 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -1344,9 +1486,9 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
@@ -1360,22 +1502,22 @@
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -1387,8 +1529,8 @@
       <c r="C33" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -1400,8 +1542,8 @@
       <c r="C34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
@@ -1413,8 +1555,8 @@
       <c r="C35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
@@ -1426,8 +1568,8 @@
       <c r="C36" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -1439,101 +1581,135 @@
       <c r="C37" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="4">
         <v>5</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="4">
         <v>4</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="4">
         <v>3</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="28"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -1550,40 +1726,498 @@
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF62D39E-2330-4987-BCF9-B649783CB476}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="33">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="36">
+        <f>B3-B6</f>
+        <v>-1</v>
+      </c>
+      <c r="I3" s="36">
+        <v>4</v>
+      </c>
+      <c r="J3" s="37">
+        <f>I3/B10</f>
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37">
+        <f>J3*B7</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="36">
+        <f>C3-C6</f>
+        <v>-2</v>
+      </c>
+      <c r="I4" s="36">
+        <v>3</v>
+      </c>
+      <c r="J4" s="37">
+        <f>I4/B10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37">
+        <f>J4*C7</f>
+        <v>0.27</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="36">
+        <f>D3-D6</f>
+        <v>-1</v>
+      </c>
+      <c r="I5" s="36">
+        <v>4</v>
+      </c>
+      <c r="J5" s="35">
+        <f>I5/B10</f>
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35">
+        <f>J5*D7</f>
+        <v>0.12</v>
+      </c>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="36">
+        <f>E3-E6</f>
+        <v>-2</v>
+      </c>
+      <c r="I6" s="36">
+        <v>3</v>
+      </c>
+      <c r="J6" s="35">
+        <f>I6/B10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35">
+        <f>J6*E7</f>
+        <v>0.06</v>
+      </c>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50">
+        <f>SUM(M3:M6)</f>
+        <v>0.73</v>
+      </c>
+      <c r="N7" s="49"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51">
+        <v>0</v>
+      </c>
+      <c r="B10" s="52">
+        <v>5</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51">
+        <v>1</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="51">
+        <v>4</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51">
+        <v>2</v>
+      </c>
+      <c r="B13" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51">
+        <v>-2</v>
+      </c>
+      <c r="B14" s="51">
+        <v>3</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51">
+        <v>3</v>
+      </c>
+      <c r="B15" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51">
+        <v>-3</v>
+      </c>
+      <c r="B16" s="51">
+        <v>2</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51">
+        <v>4</v>
+      </c>
+      <c r="B17" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51">
+        <v>-4</v>
+      </c>
+      <c r="B18" s="51">
+        <v>1</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
